--- a/ArduinoResistanceOhmExperiment/OhmVoltageExperimentDataCleanup.xlsx
+++ b/ArduinoResistanceOhmExperiment/OhmVoltageExperimentDataCleanup.xlsx
@@ -32,7 +32,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="OhmVoltageExperimentData" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/kip/Lib/UWYO/Botany/ArduinoConductanceProject/ArduinoResistanceOhmExperiment/OhmVoltageExperimentData.txt" tab="0" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/kip/Lib/UWYO/Botany/ArduinoConductanceProject/ArduinoResistanceOhmExperiment/OhmVoltageExperimentData.txt" tab="0" comma="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Value</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>Known Value</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Error Calcuations</t>
+  </si>
+  <si>
+    <t>Error STD DEV</t>
   </si>
 </sst>
 </file>
@@ -385,19 +394,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,8 +427,11 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -434,7 +448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>510</v>
       </c>
@@ -453,8 +467,12 @@
       <c r="F3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <f>D3-E3</f>
+        <v>4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>510</v>
       </c>
@@ -473,8 +491,12 @@
       <c r="F4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <f t="shared" ref="G4:G27" si="0">D4-E4</f>
+        <v>4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>510</v>
       </c>
@@ -493,8 +515,12 @@
       <c r="F5">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>511</v>
       </c>
@@ -513,8 +539,12 @@
       <c r="F6">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>511</v>
       </c>
@@ -533,8 +563,12 @@
       <c r="F7">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>511</v>
       </c>
@@ -553,8 +587,12 @@
       <c r="F8">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>510</v>
       </c>
@@ -573,8 +611,12 @@
       <c r="F9">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>167</v>
       </c>
@@ -593,8 +635,12 @@
       <c r="F10">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>167</v>
       </c>
@@ -613,8 +659,12 @@
       <c r="F11">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>167</v>
       </c>
@@ -633,8 +683,12 @@
       <c r="F12">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>167</v>
       </c>
@@ -653,8 +707,12 @@
       <c r="F13">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>91</v>
       </c>
@@ -673,8 +731,12 @@
       <c r="F14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>91</v>
       </c>
@@ -693,8 +755,12 @@
       <c r="F15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>91</v>
       </c>
@@ -713,8 +779,12 @@
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>91</v>
       </c>
@@ -733,8 +803,12 @@
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>61</v>
       </c>
@@ -753,8 +827,12 @@
       <c r="F18">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>-0.13000000000000012</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>61</v>
       </c>
@@ -773,8 +851,12 @@
       <c r="F19">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>-0.13000000000000012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>61</v>
       </c>
@@ -793,8 +875,12 @@
       <c r="F20">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>-0.13000000000000012</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>61</v>
       </c>
@@ -813,8 +899,12 @@
       <c r="F21">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>-0.13000000000000012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>61</v>
       </c>
@@ -833,8 +923,12 @@
       <c r="F22">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>-0.13000000000000012</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>61</v>
       </c>
@@ -853,8 +947,12 @@
       <c r="F23">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>-0.13000000000000012</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>61</v>
       </c>
@@ -873,8 +971,12 @@
       <c r="F24">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>-0.13000000000000012</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>61</v>
       </c>
@@ -893,8 +995,12 @@
       <c r="F25">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>-0.13000000000000012</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>61</v>
       </c>
@@ -913,8 +1019,12 @@
       <c r="F26">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>-0.13000000000000012</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>61</v>
       </c>
@@ -932,6 +1042,22 @@
       </c>
       <c r="F27">
         <v>1.5</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>-0.13000000000000012</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28">
+        <f>STDEV(G3:G27)</f>
+        <v>7.9425017049625762E-2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/ArduinoResistanceOhmExperiment/OhmVoltageExperimentDataCleanup.xlsx
+++ b/ArduinoResistanceOhmExperiment/OhmVoltageExperimentDataCleanup.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kip/Lib/UWYO/Botany/ArduinoConductanceProject/ArduinoResistanceOhmExperiment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bal/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
